--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_11.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_11.xlsx
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.149298775721292</v>
+        <v>98.098577371766609</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98.149097451028439</v>
+        <v>98.098376186671402</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>130.78717563084348</v>
+        <v>130.68728408869751</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>130.78688395878788</v>
+        <v>130.68699269284139</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>162.98939989963765</v>
+        <v>162.84153938625749</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>162.98901886306373</v>
+        <v>162.84115875970812</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>194.77607420713699</v>
+        <v>194.58145707545009</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>194.77560471836676</v>
+        <v>194.58098812793301</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>226.16293943271125</v>
+        <v>225.92271013093495</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>226.16238237545258</v>
+        <v>225.92215374358409</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -468,7 +468,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>257.22524434792388</v>
+        <v>256.93984808156699</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -476,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>257.22460054897238</v>
+        <v>256.9392050790953</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>287.98461985814936</v>
+        <v>287.65490971021711</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>287.98389001915683</v>
+        <v>287.65418079319977</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>318.44978144182556</v>
+        <v>318.07657428011981</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>318.44896622562754</v>
+        <v>318.07576010950697</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>348.59881057476821</v>
+        <v>348.1835386012836</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>348.59791061998322</v>
+        <v>348.1826398140596</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>378.42231994329546</v>
+        <v>377.96584244944978</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>378.42133594108367</v>
+        <v>377.96485973321722</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>407.93066089785765</v>
+        <v>407.43379720229075</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -556,7 +556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>407.92959357818484</v>
+        <v>407.43273128504404</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>437.13995248636093</v>
+        <v>436.60308245907009</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>437.13880256875029</v>
+        <v>436.60193405796645</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>466.07579436944593</v>
+        <v>465.49961949352269</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,7 +588,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>466.07456255829504</v>
+        <v>465.49838931256346</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>494.74574332108023</v>
+        <v>494.13093680390352</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>494.74443024168914</v>
+        <v>494.12962546673737</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>523.15701361888409</v>
+        <v>522.50422206798135</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -620,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>523.15561988301613</v>
+        <v>522.50283018477353</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>551.31649847402923</v>
+        <v>550.62634344535036</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -636,7 +636,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>551.31502468036206</v>
+        <v>550.62487161323054</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -644,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>579.2307897105984</v>
+        <v>578.50386913993884</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -652,7 +652,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>579.22923644515583</v>
+        <v>578.50231794343188</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>606.90619591932784</v>
+        <v>606.14308544763423</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -668,7 +668,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>606.90456375589531</v>
+        <v>606.14145545907252</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -676,7 +676,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>634.34875922795106</v>
+        <v>633.55001343008371</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -684,7 +684,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>634.34704872847283</v>
+        <v>633.54830521000304</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -692,7 +692,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>661.564270814937</v>
+        <v>660.73042434045658</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>661.56248252989849</v>
+        <v>660.72863843797597</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>688.55828527990639</v>
+        <v>687.68985391355818</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>688.556419748699</v>
+        <v>687.68799086674358</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +724,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>715.33613397212048</v>
+        <v>714.43361562090797</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -732,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>715.33419172339404</v>
+        <v>714.43167595712191</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -740,7 +740,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>741.9029373679806</v>
+        <v>740.96681298102396</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -748,7 +748,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>741.90091891997895</v>
+        <v>740.96479721726064</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -756,7 +756,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>768.26361657922735</v>
+        <v>767.29435100599335</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -764,7 +764,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>768.26152244011234</v>
+        <v>767.29225964920079</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -772,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>794.42290406536938</v>
+        <v>793.4209468573099</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -780,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>794.42073473353082</v>
+        <v>793.41878040469805</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +788,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>820.38535361661923</v>
+        <v>819.35113977677543</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,7 +796,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>820.38310958097281</v>
+        <v>819.34889871611313</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -804,7 +804,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>846.15534966718906</v>
+        <v>845.08930035188746</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>846.15303140746244</v>
+        <v>845.08698516178674</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -820,7 +820,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>871.73711599307626</v>
+        <v>870.63963916945647</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -828,7 +828,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>871.73472398008357</v>
+        <v>870.63725031964623</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>897.13472384336887</v>
+        <v>896.0062149061431</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -844,7 +844,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>897.13225853927486</v>
+        <v>896.0037528577318</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -852,7 +852,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>922.35209954954962</v>
+        <v>921.19294190008441</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -860,7 +860,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>922.3495614081229</v>
+        <v>921.1904071058126</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>947.39303165320564</v>
+        <v>946.20359724374157</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>947.39042112006302</v>
+        <v>946.20099014822438</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>972.26117758890462</v>
+        <v>971.04182743448121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -892,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>972.25849510174521</v>
+        <v>971.03914847444241</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -900,7 +900,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>996.9600699557227</v>
+        <v>995.71115461615716</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -908,7 +908,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>996.95731594455322</v>
+        <v>995.7084042206526</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1021.4931224079733</v>
+        <v>1020.2149824420346</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1021.4902972953255</v>
+        <v>1020.2121610326694</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1045.8636351930368</v>
+        <v>1044.5566015867835</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -940,7 +940,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1045.8607393941759</v>
+        <v>1044.5537095779191</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1070.0748003618048</v>
+        <v>1068.7391949328851</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1070.0718342849311</v>
+        <v>1068.7362327318397</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1094.1297066751038</v>
+        <v>1092.7658424546721</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1094.1266707215448</v>
+        <v>1092.7628104619134</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -980,7 +980,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1118.0313442275101</v>
+        <v>1116.639525821281</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1118.0282387919087</v>
+        <v>1116.636424430613</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1141.7826088082179</v>
+        <v>1140.3631327380531</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1141.7794342787113</v>
+        <v>1140.3599623367925</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1165.3863060170111</v>
+        <v>1163.939461044328</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1020,7 +1020,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1165.3830627754037</v>
+        <v>1163.9362220134792</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1188.8451551519563</v>
+        <v>1187.3712225841464</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1188.8418435738872</v>
+        <v>1187.3679152985667</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1212.1617928841072</v>
+        <v>1210.6610468650599</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1052,7 +1052,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1212.1584133392112</v>
+        <v>1210.6576716936199</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1235.3387767333211</v>
+        <v>1233.8114845190632</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1068,7 +1068,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1235.3353295853838</v>
+        <v>1233.8080418248016</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1258.3785883581922</v>
+        <v>1256.8250105785833</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1084,7 +1084,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1258.3750739653001</v>
+        <v>1256.8215007188571</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1281.2836366721181</v>
+        <v>1279.7040275794657</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1100,7 +1100,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1281.2800553868033</v>
+        <v>1279.7004509060932</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1108,7 +1108,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1304.0562607966015</v>
+        <v>1302.4508685020021</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1116,7 +1116,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1304.0526129659816</v>
+        <v>1302.4472253614026</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1124,7 +1124,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1326.6987328620692</v>
+        <v>1325.0677995602175</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1132,7 +1132,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1326.6950188279823</v>
+        <v>1325.0640902935461</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1349.213260665724</v>
+        <v>1347.5570228488837</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1148,7 +1148,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1349.2094807648591</v>
+        <v>1347.5532477921608</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1156,7 +1156,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1371.6019901952513</v>
+        <v>1369.9206788570314</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1164,7 +1164,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1371.5981447592744</v>
+        <v>1369.9168383412689</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1393.8670080265722</v>
+        <v>1392.1608488561039</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1180,7 +1180,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1393.8630973822476</v>
+        <v>1392.1569432074261</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1188,7 +1188,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1416.0103436032427</v>
+        <v>1414.2795571703164</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1416.0063680725527</v>
+        <v>1414.2755867100775</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1204,7 +1204,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1438.0339714045681</v>
+        <v>1436.2787733362436</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1212,7 +1212,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1438.0299313048242</v>
+        <v>1436.2747383811411</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1220,7 +1220,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1459.9398130089971</v>
+        <v>1458.1604141581786</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1459.9357086529528</v>
+        <v>1458.1563150203642</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1236,7 +1236,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1481.7297390589283</v>
+        <v>1479.9263456653464</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1244,7 +1244,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1481.725570754885</v>
+        <v>1479.9221826525313</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1503.4055711326166</v>
+        <v>1501.5783849766431</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1503.401339184526</v>
+        <v>1501.5741583922011</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1268,7 +1268,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1524.9690835284989</v>
+        <v>1523.1183020781871</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1524.9647882360648</v>
+        <v>1523.1140122212551</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1546.4220049669016</v>
+        <v>1544.547821518619</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1292,7 +1292,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1546.4176466256754</v>
+        <v>1544.5434686841932</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1300,7 +1300,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1567.7660202137538</v>
+        <v>1565.8686240267525</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1567.761599115229</v>
+        <v>1565.8642085057811</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1316,7 +1316,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1589.0027716306383</v>
+        <v>1587.0823480558831</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1324,7 +1324,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1588.998288062342</v>
+        <v>1587.0778701353586</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1332,7 +1332,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1610.1338606552222</v>
+        <v>1608.1905912587827</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1340,7 +1340,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1610.1293149008018</v>
+        <v>1608.1860512218284</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1348,7 +1348,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1631.1608492158553</v>
+        <v>1629.1949118971413</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1356,7 +1356,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1631.1562415551662</v>
+        <v>1629.1903100230973</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1364,7 +1364,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1652.0852610838817</v>
+        <v>1650.0968301889884</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1372,7 +1372,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1652.0805917930677</v>
+        <v>1650.0921667534944</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1380,7 +1380,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1672.9085831669802</v>
+        <v>1670.8978295973964</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1672.9038525185565</v>
+        <v>1670.893104872471</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1396,7 +1396,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1693.6322667466566</v>
+        <v>1691.5993580635629</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1404,7 +1404,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1693.6274750095865</v>
+        <v>1691.5945723176828</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1412,7 +1412,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1714.2577286627995</v>
+        <v>1712.2028291871864</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1714.2528761025696</v>
+        <v>1712.1979826853606</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1428,7 +1428,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1734.7863524480476</v>
+        <v>1732.7096233568539</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1436,7 +1436,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1734.7814393267436</v>
+        <v>1732.7047163606983</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1444,7 +1444,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1755.2194894145464</v>
+        <v>1753.1210888330145</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1755.2145159909219</v>
+        <v>1753.1161216008213</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1775.5584596955068</v>
+        <v>1773.4385427859413</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1468,7 +1468,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1775.5534262250542</v>
+        <v>1773.4335155727497</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1476,7 +1476,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1795.8045532438528</v>
+        <v>1793.6632722909528</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1795.7994599788703</v>
+        <v>1793.6581853486164</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1492,7 +1492,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1815.9590307900937</v>
+        <v>1813.7965352830247</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1500,7 +1500,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1815.953877979751</v>
+        <v>1813.7913888602748</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1836.0231247614404</v>
+        <v>1833.8395614727963</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1516,7 +1516,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1836.0179126518417</v>
+        <v>1833.8343558153076</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1524,7 +1524,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1855.9980401640657</v>
+        <v>1853.7935532258718</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1532,7 +1532,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1855.9927689983126</v>
+        <v>1853.7882885763227</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1540,7 +1540,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1875.8849554303017</v>
+        <v>1873.6596864071907</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1875.8796254485526</v>
+        <v>1873.6543630053234</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1895.6850232324591</v>
+        <v>1893.4391111921534</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1895.6796346719873</v>
+        <v>1893.4337292748326</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1915.3993712648657</v>
+        <v>1913.1329528460876</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1580,7 +1580,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1915.3939243601169</v>
+        <v>1913.127512647357</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1588,7 +1588,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1935.0291029956277</v>
+        <v>1932.7423124735549</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1596,7 +1596,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1935.0235979782753</v>
+        <v>1932.7368142246924</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1604,7 +1604,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1954.575298389535</v>
+        <v>1952.268267738908</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1612,7 +1612,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1954.5697354885347</v>
+        <v>1952.2627116684791</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1620,7 +1620,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1974.0390146034526</v>
+        <v>1971.711873559442</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1628,7 +1628,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1974.0333940450928</v>
+        <v>1971.7062598933526</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1636,7 +1636,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1993.4212866554669</v>
+        <v>1991.0741627723974</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1644,7 +1644,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1993.4156086634212</v>
+        <v>1991.0684917339443</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1652,7 +1652,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2012.7231280689912</v>
+        <v>2010.3561467770155</v>
       </c>
     </row>
   </sheetData>

--- a/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_11.xlsx
+++ b/target/ExpertSystem-1.0-SNAPSHOT/style/images/figure_11.xlsx
@@ -388,7 +388,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>98.098577371766609</v>
+        <v>98.730807002611968</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -396,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98.098376186671402</v>
+        <v>98.73060410947312</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -404,7 +404,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>130.68728408869751</v>
+        <v>131.93224150521792</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>130.68699269284139</v>
+        <v>131.93194671346146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>162.84153938625749</v>
+        <v>164.68414254815266</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -428,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>162.84115875970812</v>
+        <v>164.6837568725565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -436,7 +436,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>194.58145707545009</v>
+        <v>197.00648009586217</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -444,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>194.58098812793301</v>
+        <v>197.00600447861825</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -452,7 +452,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>225.92271013093495</v>
+        <v>228.91578670142621</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -460,7 +460,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>225.92215374358409</v>
+        <v>228.91522205584897</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -468,7 +468,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>256.93984808156699</v>
+        <v>260.49544197353123</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -476,7 +476,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>256.9392050790953</v>
+        <v>260.49478915026998</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -484,7 +484,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>287.65490971021711</v>
+        <v>291.76231627251821</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>287.65418079319977</v>
+        <v>291.76157598549389</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -500,7 +500,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>318.07657428011981</v>
+        <v>322.72554674231486</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -508,7 +508,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>318.07576010950697</v>
+        <v>322.72471967603542</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -516,7 +516,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>348.1835386012836</v>
+        <v>353.35606081347572</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -524,7 +524,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>348.1826398140596</v>
+        <v>353.35514762537787</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -532,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>377.96584244944978</v>
+        <v>383.65114801542393</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -540,7 +540,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>377.96485973321722</v>
+        <v>383.65014943771916</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -548,7 +548,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>407.43379720229075</v>
+        <v>413.62162397759516</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -556,7 +556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>407.43273128504404</v>
+        <v>413.62054076287251</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -564,7 +564,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>436.60308245907009</v>
+        <v>443.28613118314377</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -572,7 +572,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>436.60193405796645</v>
+        <v>443.2849640750801</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -580,7 +580,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>465.49961949352269</v>
+        <v>472.66366231982846</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -588,7 +588,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>465.49838931256346</v>
+        <v>472.6624120288642</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -596,7 +596,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>494.13093680390352</v>
+        <v>501.76240847225438</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -604,7 +604,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>494.12962546673737</v>
+        <v>501.76107565542208</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -612,7 +612,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>522.50422206798135</v>
+        <v>530.59017752463228</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -620,7 +620,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>522.50283018477353</v>
+        <v>530.58876282424444</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -628,7 +628,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>550.62634344535036</v>
+        <v>559.15441886375959</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -636,7 +636,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>550.62487161323054</v>
+        <v>559.15292290791615</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -644,7 +644,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>578.50386913993884</v>
+        <v>587.46224603735948</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -652,7 +652,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>578.50231794343188</v>
+        <v>587.46066944043457</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -660,7 +660,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>606.14308544763423</v>
+        <v>615.52045760205056</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -668,7 +668,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>606.14145545907252</v>
+        <v>615.51880096515822</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -676,7 +676,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>633.55001343008371</v>
+        <v>643.33555633478693</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -684,7 +684,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>633.54830521000304</v>
+        <v>643.33382024622722</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -692,7 +692,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>660.73042434045658</v>
+        <v>670.9137669622088</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -700,7 +700,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>660.72863843797597</v>
+        <v>670.91195199789468</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
@@ -708,7 +708,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>687.68985391355818</v>
+        <v>698.26105254539721</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
@@ -716,7 +716,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>687.68799086674358</v>
+        <v>698.25915926926336</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -724,7 +724,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>714.43361562090797</v>
+        <v>725.38312964269392</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -732,7 +732,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>714.43167595712191</v>
+        <v>725.38115860708899</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -740,7 +740,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>740.96681298102396</v>
+        <v>752.28548236023175</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
@@ -748,7 +748,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>740.96479721726064</v>
+        <v>752.28343410629304</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
@@ -756,7 +756,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>767.29435100599335</v>
+        <v>778.97337538837007</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
@@ -764,7 +764,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>767.29225964920079</v>
+        <v>778.97125044638358</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
@@ -772,7 +772,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>793.4209468573099</v>
+        <v>805.45186611214444</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
@@ -780,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>793.41878040469805</v>
+        <v>805.44966500188912</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
@@ -788,7 +788,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>819.35113977677543</v>
+        <v>831.72581587492516</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,7 +796,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>819.34889871611313</v>
+        <v>831.72353910600327</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
@@ -804,7 +804,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>845.08930035188746</v>
+        <v>857.79990046659441</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
@@ -812,7 +812,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>845.08698516178674</v>
+        <v>857.79754853874852</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
@@ -820,7 +820,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>870.63963916945647</v>
+        <v>883.67861990055758</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
@@ -828,7 +828,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>870.63725031964623</v>
+        <v>883.67619330397395</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>896.0062149061431</v>
+        <v>909.3663075376885</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
@@ -844,7 +844,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>896.0037528577318</v>
+        <v>909.36380675328928</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
@@ -852,7 +852,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>921.19294190008441</v>
+        <v>934.86713860978239</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
@@ -860,7 +860,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>921.1904071058126</v>
+        <v>934.8645641095045</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
@@ -868,7 +868,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>946.20359724374157</v>
+        <v>960.18513819015152</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
@@ -876,7 +876,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>946.20099014822438</v>
+        <v>960.18249043721585</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
@@ -884,7 +884,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>971.04182743448121</v>
+        <v>985.32418865460147</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
@@ -892,7 +892,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>971.03914847444241</v>
+        <v>985.3214681037706</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
@@ -900,7 +900,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>995.71115461615716</v>
+        <v>1010.2880366720756</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
@@ -908,7 +908,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>995.7084042206526</v>
+        <v>1010.285243769902</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
@@ -916,7 +916,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1020.2149824420346</v>
+        <v>1035.0802997607302</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
@@ -924,7 +924,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1020.2121610326694</v>
+        <v>1035.0774349457936</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
@@ -932,7 +932,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1044.5566015867835</v>
+        <v>1059.7044724420273</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
@@ -940,7 +940,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>1044.5537095779191</v>
+        <v>1059.7015361451643</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
@@ -948,7 +948,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1068.7391949328851</v>
+        <v>1084.1639320225815</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
@@ -956,7 +956,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1068.7362327318397</v>
+        <v>1084.1609246671051</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1092.7658424546721</v>
+        <v>1108.4619440309355</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
@@ -972,7 +972,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1092.7628104619134</v>
+        <v>1108.4588660328473</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
@@ -980,7 +980,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1116.639525821281</v>
+        <v>1132.6016673341164</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
@@ -988,7 +988,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1116.636424430613</v>
+        <v>1132.5985191023101</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
@@ -996,7 +996,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1140.3631327380531</v>
+        <v>1156.5861589567444</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1140.3599623367925</v>
+        <v>1156.5829408932018</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
@@ -1012,7 +1012,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1163.939461044328</v>
+        <v>1180.4183786235653</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
@@ -1020,7 +1020,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1163.9362220134792</v>
+        <v>1180.4150911235456</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
@@ -1028,7 +1028,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1187.3712225841464</v>
+        <v>1204.1011930445807</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
@@ -1036,7 +1036,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1187.3679152985667</v>
+        <v>1204.0978364968018</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
@@ -1044,7 +1044,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1210.6610468650599</v>
+        <v>1227.637379960385</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
@@ -1052,7 +1052,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1210.6576716936199</v>
+        <v>1227.6339547471994</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
@@ -1060,7 +1060,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1233.8114845190632</v>
+        <v>1251.0296319639219</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
@@ -1068,7 +1068,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1233.8080418248016</v>
+        <v>1251.0261384614842</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
@@ -1076,7 +1076,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1256.8250105785833</v>
+        <v>1274.2805601135849</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
@@ -1084,7 +1084,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1256.8215007188571</v>
+        <v>1274.2769986920164</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
@@ -1092,7 +1092,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1279.7040275794657</v>
+        <v>1297.3926973514283</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
@@ -1100,7 +1100,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1279.7004509060932</v>
+        <v>1297.3890683749735</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
@@ -1108,7 +1108,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1302.4508685020021</v>
+        <v>1320.3685017391913</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
@@ -1116,7 +1116,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1302.4472253614026</v>
+        <v>1320.3648055663684</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
@@ -1124,7 +1124,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1325.0677995602175</v>
+        <v>1343.2103595238689</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
@@ -1132,7 +1132,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1325.0640902935461</v>
+        <v>1343.2065965076174</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
@@ -1140,7 +1140,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1347.5570228488837</v>
+        <v>1365.9205880436848</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
@@ -1148,7 +1148,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>1347.5532477921608</v>
+        <v>1365.916758531506</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
@@ -1156,7 +1156,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1369.9206788570314</v>
+        <v>1388.5014384845085</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
@@ -1164,7 +1164,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>1369.9168383412689</v>
+        <v>1388.4975428186015</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
@@ -1172,7 +1172,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>1392.1608488561039</v>
+        <v>1410.9550984960224</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
@@ -1180,7 +1180,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>1392.1569432074261</v>
+        <v>1410.951137013416</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
@@ -1188,7 +1188,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1414.2795571703164</v>
+        <v>1433.2836946762693</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
@@ -1196,7 +1196,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>1414.2755867100775</v>
+        <v>1433.27966770895</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
@@ -1204,7 +1204,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>1436.2787733362436</v>
+        <v>1455.4892949325881</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
@@ -1212,7 +1212,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>1436.2747383811411</v>
+        <v>1455.4852028076214</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
@@ -1220,7 +1220,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1458.1604141581786</v>
+        <v>1477.5739107263712</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
@@ -1228,7 +1228,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>1458.1563150203642</v>
+        <v>1477.5697537660219</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
@@ -1236,7 +1236,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>1479.9263456653464</v>
+        <v>1499.5394992085673</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
@@ -1244,7 +1244,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>1479.9221826525313</v>
+        <v>1499.5352777304138</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
@@ -1252,7 +1252,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1501.5783849766431</v>
+        <v>1521.3879652523538</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
@@ -1260,7 +1260,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>1501.5741583922011</v>
+        <v>1521.3836795693994</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
@@ -1268,7 +1268,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>1523.1183020781871</v>
+        <v>1543.121163388975</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
@@ -1276,7 +1276,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>1523.1140122212551</v>
+        <v>1543.1168138097551</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
@@ -1284,7 +1284,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1544.547821518619</v>
+        <v>1564.7408996523261</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
@@ -1292,7 +1292,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>1544.5434686841932</v>
+        <v>1564.7364864810133</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
@@ -1300,7 +1300,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1565.8686240267525</v>
+        <v>1586.2489333374892</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
@@ -1308,7 +1308,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>1565.8642085057811</v>
+        <v>1586.2444568739932</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
@@ -1316,7 +1316,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1587.0823480558831</v>
+        <v>1607.6469786780776</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
@@ -1324,7 +1324,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>1587.0778701353586</v>
+        <v>1607.6424392181432</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
@@ -1332,7 +1332,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>1608.1905912587827</v>
+        <v>1628.9367064469279</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
@@ -1340,7 +1340,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>1608.1860512218284</v>
+        <v>1628.9321042822291</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
@@ -1348,7 +1348,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1629.1949118971413</v>
+        <v>1650.1197454843777</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
@@ -1356,7 +1356,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>1629.1903100230973</v>
+        <v>1650.1150809026105</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
@@ -1364,7 +1364,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>1650.0968301889884</v>
+        <v>1671.1976841580988</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
@@ -1372,7 +1372,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>1650.0921667534944</v>
+        <v>1671.1929574430683</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
@@ -1380,7 +1380,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1670.8978295973964</v>
+        <v>1692.1720717581909</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
@@ -1388,7 +1388,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>1670.893104872471</v>
+        <v>1692.1672831898989</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
@@ -1396,7 +1396,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>1691.5993580635629</v>
+        <v>1713.044419831019</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
@@ -1404,7 +1404,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>1691.5945723176828</v>
+        <v>1713.039569685747</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
@@ -1412,7 +1412,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>1712.2028291871864</v>
+        <v>1733.8162034550471</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
@@ -1420,7 +1420,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>1712.1979826853606</v>
+        <v>1733.8112920054371</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
@@ -1428,7 +1428,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>1732.7096233568539</v>
+        <v>1754.4888624617233</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
@@ -1436,7 +1436,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>1732.7047163606983</v>
+        <v>1754.4838899768556</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
@@ -1444,7 +1444,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>1753.1210888330145</v>
+        <v>1775.0638026042841</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
@@ -1452,7 +1452,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>1753.1161216008213</v>
+        <v>1775.0587693497548</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>1773.4385427859413</v>
+        <v>1795.5423966771687</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
@@ -1468,7 +1468,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>1773.4335155727497</v>
+        <v>1795.537302915164</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
@@ -1476,7 +1476,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>1793.6632722909528</v>
+        <v>1815.9259855885718</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
@@ -1484,7 +1484,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>1793.6581853486164</v>
+        <v>1815.9208315779379</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
@@ -1492,7 +1492,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>1813.7965352830247</v>
+        <v>1836.2158793885076</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
@@ -1500,7 +1500,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1813.7913888602748</v>
+        <v>1836.2106653848216</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
@@ -1508,7 +1508,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>1833.8395614727963</v>
+        <v>1856.4133582546267</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
@@ -1516,7 +1516,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1833.8343558153076</v>
+        <v>1856.4080845102644</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
@@ -1524,7 +1524,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1853.7935532258718</v>
+        <v>1876.5196734378869</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
@@ -1532,7 +1532,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1853.7882885763227</v>
+        <v>1876.5143402020892</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
@@ -1540,7 +1540,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>1873.6596864071907</v>
+        <v>1896.5360481700579</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
@@ -1548,7 +1548,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>1873.6543630053234</v>
+        <v>1896.5306556889932</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
@@ -1556,7 +1556,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>1893.4391111921534</v>
+        <v>1916.463678534926</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
@@ -1564,7 +1564,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>1893.4337292748326</v>
+        <v>1916.4582270517533</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
@@ -1572,7 +1572,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>1913.1329528460876</v>
+        <v>1936.3037343049627</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.15">
@@ -1580,7 +1580,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>1913.127512647357</v>
+        <v>1936.2982240598926</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.15">
@@ -1588,7 +1588,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>1932.7423124735549</v>
+        <v>1956.0573597451134</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.15">
@@ -1596,7 +1596,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>1932.7368142246924</v>
+        <v>1956.0517909754651</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.15">
@@ -1604,7 +1604,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>1952.268267738908</v>
+        <v>1975.7256743852706</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.15">
@@ -1612,7 +1612,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>1952.2627116684791</v>
+        <v>1975.7200473255307</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.15">
@@ -1620,7 +1620,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>1971.711873559442</v>
+        <v>1995.3097737629155</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.15">
@@ -1628,7 +1628,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>1971.7062598933526</v>
+        <v>1995.3040886447934</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.15">
@@ -1636,7 +1636,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1991.0741627723974</v>
+        <v>2014.8107301373211</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.15">
@@ -1644,7 +1644,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>1991.0684917339443</v>
+        <v>2014.804987189802</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.15">
@@ -1652,7 +1652,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2010.3561467770155</v>
+        <v>2034.2295931766371</v>
       </c>
     </row>
   </sheetData>
